--- a/data/envipe2011-2013.xlsx
+++ b/data/envipe2011-2013.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10800"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="18200" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -153,12 +158,6 @@
     <t>NAC</t>
   </si>
   <si>
-    <t>AGU</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
     <t>BCS</t>
   </si>
   <si>
@@ -171,54 +170,30 @@
     <t>COL</t>
   </si>
   <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>CHH</t>
-  </si>
-  <si>
-    <t>DIF</t>
-  </si>
-  <si>
     <t>DUR</t>
   </si>
   <si>
-    <t>GUA</t>
-  </si>
-  <si>
     <t>GRO</t>
   </si>
   <si>
-    <t>HID</t>
-  </si>
-  <si>
     <t>JAL</t>
   </si>
   <si>
     <t>MEX</t>
   </si>
   <si>
-    <t>MIC</t>
-  </si>
-  <si>
     <t>MOR</t>
   </si>
   <si>
     <t>NAY</t>
   </si>
   <si>
-    <t>NLE</t>
-  </si>
-  <si>
     <t>OAX</t>
   </si>
   <si>
     <t>PUE</t>
   </si>
   <si>
-    <t>QUE</t>
-  </si>
-  <si>
     <t>QROO</t>
   </si>
   <si>
@@ -250,6 +225,36 @@
   </si>
   <si>
     <t>abreviatura</t>
+  </si>
+  <si>
+    <t>AGS</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CHIS</t>
+  </si>
+  <si>
+    <t>CHIH</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>GTO</t>
+  </si>
+  <si>
+    <t>HGO</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>QR</t>
   </si>
 </sst>
 </file>
@@ -334,7 +339,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,28 +704,28 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B3" sqref="B3:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>43</v>
@@ -753,7 +758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -791,12 +796,12 @@
         <v>69.527780816912042</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -829,12 +834,12 @@
         <v>60.848680630851995</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -867,12 +872,12 @@
         <v>58.250422333201492</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -905,12 +910,12 @@
         <v>37.054088506836393</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -943,12 +948,12 @@
         <v>51.130147815120253</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -981,12 +986,12 @@
         <v>64.543217695825248</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1019,12 +1024,12 @@
         <v>65.966261877617313</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1057,12 +1062,12 @@
         <v>38.313390807087465</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1095,12 +1100,12 @@
         <v>89.386441494603048</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1133,12 +1138,12 @@
         <v>75.456337756747018</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1171,12 +1176,12 @@
         <v>88.09638675358903</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1209,12 +1214,12 @@
         <v>54.343631133570959</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1247,12 +1252,12 @@
         <v>72.705732715182421</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1285,12 +1290,12 @@
         <v>54.782489555829571</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1323,12 +1328,12 @@
         <v>71.14870028442752</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
@@ -1361,12 +1366,12 @@
         <v>83.918550380488952</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1399,12 +1404,12 @@
         <v>76.016584163094251</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
@@ -1437,12 +1442,12 @@
         <v>80.797150290497825</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1475,12 +1480,12 @@
         <v>79.157148450957962</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -1513,12 +1518,12 @@
         <v>84.466041099816508</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
@@ -1551,12 +1556,12 @@
         <v>73.239753265137068</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
@@ -1589,12 +1594,12 @@
         <v>64.463799497989484</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1627,12 +1632,12 @@
         <v>29.654664516701096</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
@@ -1665,12 +1670,12 @@
         <v>63.880382030759584</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
@@ -1703,12 +1708,12 @@
         <v>76.529961406378945</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
@@ -1741,12 +1746,12 @@
         <v>80.8666469115268</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1779,12 +1784,12 @@
         <v>46.123913662412932</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
@@ -1817,12 +1822,12 @@
         <v>77.816747318371853</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
@@ -1855,12 +1860,12 @@
         <v>83.415523411903536</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -1893,12 +1898,12 @@
         <v>41.488905123434115</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
@@ -1931,12 +1936,12 @@
         <v>65.13353374079685</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
@@ -1969,12 +1974,12 @@
         <v>26.399120412450337</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>32</v>
@@ -2009,7 +2014,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2019,9 +2029,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2031,8 +2046,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>